--- a/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_BC.xlsx
+++ b/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_BC.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_calibration_MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BCFB07C-94BB-4999-9895-377AC3AAAE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CD7CD7-AEF0-456A-8A43-A8E479D889AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A0344439-0916-4217-B24E-14322B387D1C}"/>
+    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{318FAD4B-F591-4068-A603-A5DFA2F13241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1093,19 +1090,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ON"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1424,21 +1408,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251864FE-C193-48B4-9FB5-0F81684295B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DF394A-1C19-4BCC-8DDA-5E666B99BD36}">
   <dimension ref="A1:X259"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1512,7 +1496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1614,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1689,7 +1673,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1748,7 +1732,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1791,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1866,7 +1850,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1925,7 +1909,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1984,7 +1968,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2043,7 +2027,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2102,7 +2086,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2161,7 +2145,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2220,7 +2204,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2279,7 +2263,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2322,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2397,7 +2381,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2456,7 +2440,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2515,7 +2499,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2574,7 +2558,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2633,7 +2617,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2692,7 +2676,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2751,7 +2735,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2810,7 +2794,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2869,7 +2853,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2928,7 +2912,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2987,7 +2971,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3046,7 +3030,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3105,7 +3089,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3164,7 +3148,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3223,7 +3207,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3282,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -3341,7 +3325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3400,7 +3384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -3459,7 +3443,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -3518,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3577,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -3636,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -3695,7 +3679,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -3754,7 +3738,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -3813,7 +3797,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -3872,7 +3856,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -3931,7 +3915,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3990,7 +3974,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4049,7 +4033,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4108,7 +4092,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -4167,7 +4151,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -4226,7 +4210,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -4285,7 +4269,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -4344,7 +4328,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -4403,7 +4387,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -4462,7 +4446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -4521,7 +4505,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -4580,7 +4564,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -4639,7 +4623,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -4698,7 +4682,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -4757,7 +4741,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -4816,7 +4800,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -4875,7 +4859,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -4934,7 +4918,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -4993,7 +4977,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -5052,7 +5036,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -5111,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -5170,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -5229,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>107</v>
       </c>
@@ -5288,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -5347,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -5406,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -5465,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -5524,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -5583,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -5642,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -5701,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -5760,7 +5744,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -5819,7 +5803,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -5878,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -5937,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -5996,7 +5980,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -6055,7 +6039,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -6114,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -6173,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -6232,7 +6216,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -6291,7 +6275,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -6350,7 +6334,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -6409,7 +6393,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -6468,7 +6452,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -6527,7 +6511,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -6586,7 +6570,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -6645,7 +6629,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -6704,7 +6688,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -6763,7 +6747,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -6822,7 +6806,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -6881,7 +6865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -6940,7 +6924,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -6999,7 +6983,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -7058,7 +7042,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -7117,7 +7101,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -7176,7 +7160,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -7235,7 +7219,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -7294,7 +7278,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -7353,7 +7337,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -7412,7 +7396,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>147</v>
       </c>
@@ -7471,7 +7455,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -7530,7 +7514,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -7589,7 +7573,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -7648,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -7707,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -7766,7 +7750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>159</v>
       </c>
@@ -7825,7 +7809,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>159</v>
       </c>
@@ -7884,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>159</v>
       </c>
@@ -7943,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -8002,7 +7986,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>164</v>
       </c>
@@ -8061,7 +8045,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>164</v>
       </c>
@@ -8120,7 +8104,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>164</v>
       </c>
@@ -8179,7 +8163,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -8238,7 +8222,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>165</v>
       </c>
@@ -8297,7 +8281,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -8356,7 +8340,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -8415,7 +8399,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>167</v>
       </c>
@@ -8474,7 +8458,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>167</v>
       </c>
@@ -8533,7 +8517,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>168</v>
       </c>
@@ -8592,7 +8576,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -8651,7 +8635,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -8710,7 +8694,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -8769,7 +8753,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>169</v>
       </c>
@@ -8828,7 +8812,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>171</v>
       </c>
@@ -8887,7 +8871,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>171</v>
       </c>
@@ -8946,7 +8930,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>172</v>
       </c>
@@ -9005,7 +8989,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -9064,7 +9048,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>174</v>
       </c>
@@ -9123,7 +9107,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>175</v>
       </c>
@@ -9182,7 +9166,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>176</v>
       </c>
@@ -9241,7 +9225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>177</v>
       </c>
@@ -9300,7 +9284,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -9359,7 +9343,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>179</v>
       </c>
@@ -9418,7 +9402,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>179</v>
       </c>
@@ -9477,7 +9461,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -9536,7 +9520,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>181</v>
       </c>
@@ -9595,7 +9579,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>182</v>
       </c>
@@ -9654,7 +9638,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>183</v>
       </c>
@@ -9713,7 +9697,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -9772,7 +9756,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>185</v>
       </c>
@@ -9831,7 +9815,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>186</v>
       </c>
@@ -9890,7 +9874,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -9949,7 +9933,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>188</v>
       </c>
@@ -10008,7 +9992,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>189</v>
       </c>
@@ -10067,7 +10051,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>190</v>
       </c>
@@ -10126,7 +10110,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>191</v>
       </c>
@@ -10185,7 +10169,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>191</v>
       </c>
@@ -10244,7 +10228,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>192</v>
       </c>
@@ -10303,7 +10287,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>192</v>
       </c>
@@ -10362,7 +10346,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>192</v>
       </c>
@@ -10421,7 +10405,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>192</v>
       </c>
@@ -10480,7 +10464,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>192</v>
       </c>
@@ -10539,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>192</v>
       </c>
@@ -10598,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>192</v>
       </c>
@@ -10657,7 +10641,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>192</v>
       </c>
@@ -10716,7 +10700,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>192</v>
       </c>
@@ -10775,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -10834,7 +10818,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>199</v>
       </c>
@@ -10893,7 +10877,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -10952,7 +10936,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>200</v>
       </c>
@@ -11011,7 +10995,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>201</v>
       </c>
@@ -11070,7 +11054,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>201</v>
       </c>
@@ -11129,7 +11113,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>201</v>
       </c>
@@ -11188,7 +11172,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>202</v>
       </c>
@@ -11247,7 +11231,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -11306,7 +11290,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>202</v>
       </c>
@@ -11365,7 +11349,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -11424,7 +11408,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -11483,7 +11467,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -11542,7 +11526,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -11601,7 +11585,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>207</v>
       </c>
@@ -11660,7 +11644,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>208</v>
       </c>
@@ -11719,7 +11703,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -11778,7 +11762,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>210</v>
       </c>
@@ -11837,7 +11821,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>210</v>
       </c>
@@ -11896,7 +11880,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>215</v>
       </c>
@@ -11955,7 +11939,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>218</v>
       </c>
@@ -12014,7 +11998,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -12073,7 +12057,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>221</v>
       </c>
@@ -12132,7 +12116,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>223</v>
       </c>
@@ -12191,7 +12175,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>223</v>
       </c>
@@ -12250,7 +12234,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>225</v>
       </c>
@@ -12309,7 +12293,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>228</v>
       </c>
@@ -12368,7 +12352,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>228</v>
       </c>
@@ -12427,7 +12411,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>228</v>
       </c>
@@ -12486,7 +12470,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>232</v>
       </c>
@@ -12545,7 +12529,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>234</v>
       </c>
@@ -12604,7 +12588,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>234</v>
       </c>
@@ -12663,7 +12647,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>237</v>
       </c>
@@ -12722,7 +12706,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>240</v>
       </c>
@@ -12781,7 +12765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>240</v>
       </c>
@@ -12840,7 +12824,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>244</v>
       </c>
@@ -12899,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>244</v>
       </c>
@@ -12958,7 +12942,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>248</v>
       </c>
@@ -13017,7 +13001,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>248</v>
       </c>
@@ -13076,7 +13060,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>251</v>
       </c>
@@ -13135,7 +13119,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>254</v>
       </c>
@@ -13194,7 +13178,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>254</v>
       </c>
@@ -13253,7 +13237,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>257</v>
       </c>
@@ -13312,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>257</v>
       </c>
@@ -13371,7 +13355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -13430,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -13489,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>258</v>
       </c>
@@ -13548,7 +13532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>259</v>
       </c>
@@ -13607,7 +13591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>259</v>
       </c>
@@ -13666,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>259</v>
       </c>
@@ -13725,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>260</v>
       </c>
@@ -13784,7 +13768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>260</v>
       </c>
@@ -13843,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>260</v>
       </c>
@@ -13902,7 +13886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>261</v>
       </c>
@@ -13961,7 +13945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>262</v>
       </c>
@@ -14020,7 +14004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>263</v>
       </c>
@@ -14079,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>264</v>
       </c>
@@ -14138,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>265</v>
       </c>
@@ -14197,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>266</v>
       </c>
@@ -14256,7 +14240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>267</v>
       </c>
@@ -14315,7 +14299,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>267</v>
       </c>
@@ -14374,7 +14358,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>267</v>
       </c>
@@ -14433,7 +14417,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>267</v>
       </c>
@@ -14492,7 +14476,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>269</v>
       </c>
@@ -14551,7 +14535,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>269</v>
       </c>
@@ -14610,7 +14594,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>269</v>
       </c>
@@ -14669,7 +14653,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>269</v>
       </c>
@@ -14728,7 +14712,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>271</v>
       </c>
@@ -14787,7 +14771,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>271</v>
       </c>
@@ -14846,7 +14830,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>271</v>
       </c>
@@ -14905,7 +14889,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>271</v>
       </c>
@@ -14964,7 +14948,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>272</v>
       </c>
@@ -15023,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>275</v>
       </c>
@@ -15082,7 +15066,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>278</v>
       </c>
@@ -15141,7 +15125,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>281</v>
       </c>
@@ -15200,7 +15184,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>285</v>
       </c>
@@ -15259,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>288</v>
       </c>
@@ -15318,7 +15302,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>288</v>
       </c>
@@ -15377,7 +15361,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>290</v>
       </c>
@@ -15406,47 +15390,47 @@
         <v>0.02</v>
       </c>
       <c r="N238">
-        <f t="shared" ref="N238:W241" si="0">M238</f>
+        <f t="shared" ref="N238:W241" ca="1" si="0">M238</f>
         <v>0.02</v>
       </c>
       <c r="O238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="Q238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="R238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="S238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="T238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="U238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="V238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="W238">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>290</v>
       </c>
@@ -15475,47 +15459,47 @@
         <v>0.05</v>
       </c>
       <c r="N239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="O239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="Q239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="R239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="S239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="T239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="U239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="V239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="W239">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>290</v>
       </c>
@@ -15544,47 +15528,47 @@
         <v>0</v>
       </c>
       <c r="N240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W240">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>290</v>
       </c>
@@ -15613,47 +15597,47 @@
         <v>0</v>
       </c>
       <c r="N241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W241">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>295</v>
       </c>
@@ -15712,7 +15696,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>298</v>
       </c>
@@ -15771,7 +15755,7 @@
         <v>2.8571428571428601E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>298</v>
       </c>
@@ -15833,7 +15817,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>304</v>
       </c>
@@ -15892,7 +15876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>307</v>
       </c>
@@ -15921,50 +15905,50 @@
         <v>0</v>
       </c>
       <c r="N246">
-        <f>(0.002*0.87)/(0.002*0.87+(1-0.002))</f>
+        <f ca="1">(0.002*0.87)/(0.002*0.87+(1-0.002))</f>
         <v>1.7404525176545902E-3</v>
       </c>
       <c r="O246">
-        <f>(0.005*0.87)/(0.005*0.87+(1-0.005))</f>
+        <f ca="1">(0.005*0.87)/(0.005*0.87+(1-0.005))</f>
         <v>4.3528293390703958E-3</v>
       </c>
       <c r="P246">
-        <f>(0.01*0.87)/(0.01*0.87+(1-0.01))</f>
+        <f ca="1">(0.01*0.87)/(0.01*0.87+(1-0.01))</f>
         <v>8.7113247221387788E-3</v>
       </c>
-      <c r="Q246" t="e">
-        <f>MAX([1]ON!R$5,(0.04*0.87)/(0.04*0.87+(1-0.04)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R246" t="e">
-        <f>MAX([1]ON!S$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),Q246*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S246" t="e">
-        <f>MAX([1]ON!T$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),R246*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T246" t="e">
-        <f>MAX([1]ON!U$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),S246*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U246" t="e">
-        <f>MAX([1]ON!V$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),T246*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V246" t="e">
-        <f>MAX([1]ON!W$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),U246*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W246" t="e">
-        <f>MAX([1]ON!X$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),V246*1.1))</f>
-        <v>#REF!</v>
+      <c r="Q246">
+        <f ca="1">(0.04*0.87)/(0.04*0.87+(1-0.04))</f>
+        <v>3.4981905910735828E-2</v>
+      </c>
+      <c r="R246">
+        <f ca="1">MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),Q246*1.1)</f>
+        <v>3.8480096501809412E-2</v>
+      </c>
+      <c r="S246">
+        <f t="shared" ref="S246:W246" ca="1" si="1">MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),R246*1.1)</f>
+        <v>4.2328106151990355E-2</v>
+      </c>
+      <c r="T246">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6560916767189396E-2</v>
+      </c>
+      <c r="U246">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1217008443908342E-2</v>
+      </c>
+      <c r="V246">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6338709288299184E-2</v>
+      </c>
+      <c r="W246">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1972580217129106E-2</v>
       </c>
       <c r="X246" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>311</v>
       </c>
@@ -15990,54 +15974,54 @@
         <v>20</v>
       </c>
       <c r="M247">
-        <f>(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
+        <f ca="1">(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
         <v>1.3489027582041475E-2</v>
       </c>
       <c r="N247">
-        <f>(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
+        <f ca="1">(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
         <v>2.7158492095662748E-2</v>
       </c>
       <c r="O247">
-        <f>(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
+        <f ca="1">(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
         <v>3.4062023385866808E-2</v>
       </c>
       <c r="P247">
-        <f>(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
+        <f ca="1">(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
         <v>4.1012038359518464E-2</v>
       </c>
-      <c r="Q247" t="e">
-        <f>MAX([1]ON!R$6,(0.1*0.67)/(0.1*0.67+(1-0.1)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R247" t="e">
-        <f>MAX([1]ON!S$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),Q247*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S247" t="e">
-        <f>MAX([1]ON!T$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),R247*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T247" t="e">
-        <f>MAX([1]ON!U$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),S247*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U247" t="e">
-        <f>MAX([1]ON!V$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),T247*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V247" t="e">
-        <f>MAX([1]ON!W$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),U247*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W247" t="e">
-        <f>MAX([1]ON!X$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),V247*1.1))</f>
-        <v>#REF!</v>
+      <c r="Q247">
+        <f ca="1">(0.1*0.67)/(0.1*0.67+(1-0.1))</f>
+        <v>6.9286452947259561E-2</v>
+      </c>
+      <c r="R247">
+        <f ca="1">MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),Q247*1.1)</f>
+        <v>7.6215098241985524E-2</v>
+      </c>
+      <c r="S247">
+        <f t="shared" ref="S247:W247" ca="1" si="2">MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),R247*1.1)</f>
+        <v>8.3836608066184079E-2</v>
+      </c>
+      <c r="T247">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2220268872802491E-2</v>
+      </c>
+      <c r="U247">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10144229576008275</v>
+      </c>
+      <c r="V247">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10573382430299842</v>
+      </c>
+      <c r="W247">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10573382430299842</v>
       </c>
       <c r="X247" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>313</v>
       </c>
@@ -16063,54 +16047,54 @@
         <v>20</v>
       </c>
       <c r="M248">
-        <f>(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
+        <f ca="1">(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
         <v>1.3489027582041475E-2</v>
       </c>
       <c r="N248">
-        <f>(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
+        <f ca="1">(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
         <v>2.7158492095662748E-2</v>
       </c>
       <c r="O248">
-        <f>(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
+        <f ca="1">(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
         <v>3.4062023385866808E-2</v>
       </c>
       <c r="P248">
-        <f>(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
+        <f ca="1">(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
         <v>4.1012038359518464E-2</v>
       </c>
-      <c r="Q248" t="e">
-        <f>MAX([1]ON!R$7,(0.1*0.67)/(0.1*0.67+(1-0.1)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R248" t="e">
-        <f>MAX([1]ON!S$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),Q248*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S248" t="e">
-        <f>MAX([1]ON!T$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),R248*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T248" t="e">
-        <f>MAX([1]ON!U$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),S248*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U248" t="e">
-        <f>MAX([1]ON!V$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),T248*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V248" t="e">
-        <f>MAX([1]ON!W$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),U248*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W248" t="e">
-        <f>MAX([1]ON!X$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),V248*2))</f>
-        <v>#REF!</v>
+      <c r="Q248">
+        <f ca="1">(0.1*0.67)/(0.1*0.67+(1-0.1))</f>
+        <v>6.9286452947259561E-2</v>
+      </c>
+      <c r="R248">
+        <f ca="1">MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),Q248*2)</f>
+        <v>0.13857290589451912</v>
+      </c>
+      <c r="S248">
+        <f t="shared" ref="S248:W248" ca="1" si="3">MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),R248*2)</f>
+        <v>0.27714581178903824</v>
+      </c>
+      <c r="T248">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.55429162357807649</v>
+      </c>
+      <c r="U248">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79152189020152885</v>
+      </c>
+      <c r="V248">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79152189020152885</v>
+      </c>
+      <c r="W248">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79152189020152885</v>
       </c>
       <c r="X248" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>315</v>
       </c>
@@ -16169,7 +16153,7 @@
         <v>0.34533154900000002</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>319</v>
       </c>
@@ -16228,7 +16212,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>323</v>
       </c>
@@ -16290,7 +16274,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>326</v>
       </c>
@@ -16352,7 +16336,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>327</v>
       </c>
@@ -16414,7 +16398,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>328</v>
       </c>
@@ -16476,7 +16460,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>329</v>
       </c>
@@ -16538,7 +16522,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>330</v>
       </c>
@@ -16600,7 +16584,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>331</v>
       </c>
@@ -16662,7 +16646,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>332</v>
       </c>
@@ -16724,7 +16708,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>333</v>
       </c>
